--- a/programa/FATURAMENTO.xlsx
+++ b/programa/FATURAMENTO.xlsx
@@ -734,9 +734,6 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
@@ -769,10 +766,7 @@
         <v>98</v>
       </c>
       <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -806,7 +800,10 @@
         <v>98</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>42.5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
